--- a/Chapter12/Chapter 12 - Periodic Income Statement.xlsx
+++ b/Chapter12/Chapter 12 - Periodic Income Statement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Packt\Chapter 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CECBAE1-CFE5-4798-A965-C6CB47B2DB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EFBE6C-2EFB-42B0-98B5-7FE0C6609B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="390" yWindow="390" windowWidth="13380" windowHeight="10080" tabRatio="862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="16440" tabRatio="862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="12" r:id="rId1"/>
@@ -579,7 +579,9 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
